--- a/backlog/Backlog.xlsx
+++ b/backlog/Backlog.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E39923-774B-4E07-A765-0DE8F49862B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="23550" yWindow="75" windowWidth="15105" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejemplos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -43,12 +45,60 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>PERFIL</t>
+  </si>
+  <si>
+    <t>1 (Admin)</t>
+  </si>
+  <si>
+    <t>3 (Operador)</t>
+  </si>
+  <si>
+    <t>2 (Supervisor)</t>
+  </si>
+  <si>
+    <t>John_Doe</t>
+  </si>
+  <si>
+    <t>Jane_Doe</t>
+  </si>
+  <si>
+    <t>Pepe_Mujica</t>
+  </si>
+  <si>
+    <t>Natalia_Natalia</t>
+  </si>
+  <si>
+    <t>Sup456</t>
+  </si>
+  <si>
+    <t>Op789</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>Op1010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,14 +132,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -370,10 +444,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -409,4 +483,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C5B160-7AC4-4FFF-A1EC-FA10B19C32D7}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/backlog/Backlog.xlsx
+++ b/backlog/Backlog.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E39923-774B-4E07-A765-0DE8F49862B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BE87C3-0F42-4B25-B23C-982E46334D13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23550" yWindow="75" windowWidth="15105" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Op1010</t>
+  </si>
+  <si>
+    <t>23/10/2020:</t>
+  </si>
+  <si>
+    <t>19 a 21hs, trabajamos en la creación del menú y login</t>
   </si>
 </sst>
 </file>
@@ -116,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +176,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,10 +503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C5B160-7AC4-4FFF-A1EC-FA10B19C32D7}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +606,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:E8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
